--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3181.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3181.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.220838915638645</v>
+        <v>1.015913605690002</v>
       </c>
       <c r="B1">
-        <v>2.14567011709402</v>
+        <v>2.028582811355591</v>
       </c>
       <c r="C1">
-        <v>7.212855605793836</v>
+        <v>3.637657403945923</v>
       </c>
       <c r="D1">
-        <v>3.656198613390707</v>
+        <v>2.070173263549805</v>
       </c>
       <c r="E1">
-        <v>1.394133647972016</v>
+        <v>0.3596626818180084</v>
       </c>
     </row>
   </sheetData>
